--- a/biology/Botanique/Adaptation_(film)/Adaptation_(film).xlsx
+++ b/biology/Botanique/Adaptation_(film)/Adaptation_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adaptation (Adaptation.) est un film américain de Spike Jonze sorti en 2002. Écrit par Charlie Kaufman, il réunit Nicolas Cage, Meryl Streep et Chris Cooper.
 Adaptation, comme son titre l'indique, traite de l'adaptation cinématographique d'une œuvre littéraire et des atermoiements du scénariste qui y est employé, sombrant dans une crise existentielle. Le principe narratif du film repose sur les deux figures de style que sont la mise en abyme et l'allégorie.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charlie Kaufman, heureux scénariste de Dans la peau de John Malkovich et fort de ce succès, vient de se voir confier l'adaptation du livre The Orchid Thief (en). Le roman est signé de la journaliste Susan Orlean et inspiré de son enquête sur un collectionneur et chasseur d'orchidées rares.
 Séduit par l'idée de tirer du livre un scénario original, Charlie Kaufman se met au travail mais, confronté à la page blanche, il finit bientôt par se perdre dans la meilleure façon d'adapter l'histoire.
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre : Adaptation
@@ -562,7 +578,7 @@
 Format : Couleurs - 1,85:1 - Dolby - 35 mm
 Genre : Comédie dramatique
 Durée : 114 minutes
-Dates de sortie[1] :
+Dates de sortie :
  États-Unis : 6 décembre 2002
  France et  Suisse romande : 26 mars 2003</t>
         </is>
@@ -592,9 +608,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Légende : VF = Version française[réf. nécessaire] et VQ = Version québécoise[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Légende : VF = Version française[réf. nécessaire] et VQ = Version québécoise
 Nicolas Cage (VF : Dominique Collignon-Maurin et VQ : Benoît Rousseau) : Charlie Kaufman et Donald Kaufman
 Meryl Streep (VF : Frédérique Tirmont et VQ : Marie-Andrée Corneille) : Susan Orlean
 Chris Cooper (VF : Bernard Métraux et VQ : Jean-Luc Montminy) : John Laroche
@@ -651,12 +669,51 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Récompenses
-Golden Globe 2003 : Meilleur second rôle pour Meryl Streep
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Golden Globe 2003 : Meilleur second rôle pour Meryl Streep
 Oscars du cinéma 2003 : Meilleur second rôle masculin pour Chris Cooper
-Ours d'argent (Grand prix du jury) au Festival de Berlin
-Nominations
-Oscars du cinéma 2003 : meilleur acteur Nicolas Cage
+Ours d'argent (Grand prix du jury) au Festival de Berlin</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adaptation_(film)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adaptation_(film)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Oscars du cinéma 2003 : meilleur acteur Nicolas Cage
 Oscars du cinéma 2003 : meilleur second rôle pour Meryl Streep
 Oscars du cinéma 2003 : Meilleure adaptation pour Charlie Kaufman
 Union de la critique de cinéma 2004 : Grand Prix</t>
